--- a/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
+++ b/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_ghodsvali_tue_nl/Documents/Collaboration/Papers/04-Decision Support System/MOO algorithm scripts/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_ghodsvali_tue_nl/Documents/Collaboration/Papers/04-Decision Support System/MOO algorithm scripts/Project/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3A781C0-8552-40D1-A3AF-46A8ADEA9BE3}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4CB895AB-7FFA-4461-94D0-2B74F378E810}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socal acceptance (AHP)" sheetId="1" r:id="rId1"/>
     <sheet name="Compatibility" sheetId="2" r:id="rId2"/>
     <sheet name="Distance" sheetId="3" r:id="rId3"/>
     <sheet name="Standalone policy use" sheetId="5" r:id="rId4"/>
-    <sheet name="Possible policies combinations" sheetId="4" r:id="rId5"/>
+    <sheet name="Configs" sheetId="6" r:id="rId5"/>
+    <sheet name="Possible policies combinations" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="48">
   <si>
     <t>K1</t>
   </si>
@@ -180,6 +181,30 @@
   </si>
   <si>
     <t>Mixed-use</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>vegetable_demand</t>
+  </si>
+  <si>
+    <t>0.125*365</t>
+  </si>
+  <si>
+    <t>agri_land_availability</t>
+  </si>
+  <si>
+    <t>energy_land_availabilty</t>
+  </si>
+  <si>
+    <t>electricity_demand</t>
+  </si>
+  <si>
+    <t>error_buffer</t>
+  </si>
+  <si>
+    <t>grid_lenght</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44EA1FC-CFB9-4FBB-9DED-2B39E11FE368}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2623,6 +2648,81 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F664CE21-9435-45EE-BDCF-0A6862ECC5A2}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>43200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9B36E7-9711-40D1-9FF3-AA0981DB91E2}">
   <dimension ref="A1:U13"/>
   <sheetViews>

--- a/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
+++ b/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_ghodsvali_tue_nl/Documents/Collaboration/Papers/04-Decision Support System/MOO algorithm scripts/Project/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4CB895AB-7FFA-4461-94D0-2B74F378E810}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3669F56E-F200-45AB-9461-E37EB3F67842}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Socal acceptance (AHP)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="Distance" sheetId="3" r:id="rId3"/>
     <sheet name="Standalone policy use" sheetId="5" r:id="rId4"/>
     <sheet name="Configs" sheetId="6" r:id="rId5"/>
-    <sheet name="Possible policies combinations" sheetId="4" r:id="rId6"/>
+    <sheet name="Landuse Dict" sheetId="7" r:id="rId6"/>
+    <sheet name="Policy Dict" sheetId="8" r:id="rId7"/>
+    <sheet name="Combination" sheetId="9" r:id="rId8"/>
+    <sheet name="Possible policies combinations" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="57">
   <si>
     <t>K1</t>
   </si>
@@ -205,6 +208,33 @@
   </si>
   <si>
     <t>grid_lenght</t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,3,9</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>5,6,7</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1933,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2651,13 +2681,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F664CE21-9435-45EE-BDCF-0A6862ECC5A2}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2723,6 +2754,239 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C252B5C-C0D1-4275-B0B5-B97DE683A8A2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70DAEF6-41C4-44C3-9ED5-1AD00CBC52EC}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCA42DC-B205-42E1-9815-1453A6C5BD9F}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9B36E7-9711-40D1-9FF3-AA0981DB91E2}">
   <dimension ref="A1:U13"/>
   <sheetViews>

--- a/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
+++ b/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_ghodsvali_tue_nl/Documents/Collaboration/Papers/04-Decision Support System/MOO algorithm scripts/Project/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3669F56E-F200-45AB-9461-E37EB3F67842}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E169A5F-6E5B-4C76-8198-F356075AA208}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Socal acceptance (AHP)" sheetId="1" r:id="rId1"/>
-    <sheet name="Compatibility" sheetId="2" r:id="rId2"/>
-    <sheet name="Distance" sheetId="3" r:id="rId3"/>
+    <sheet name="Distance" sheetId="3" r:id="rId1"/>
+    <sheet name="Socal acceptance (AHP)" sheetId="1" r:id="rId2"/>
+    <sheet name="Compatibility" sheetId="2" r:id="rId3"/>
     <sheet name="Standalone policy use" sheetId="5" r:id="rId4"/>
     <sheet name="Configs" sheetId="6" r:id="rId5"/>
     <sheet name="Landuse Dict" sheetId="7" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
   <si>
     <t>K1</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>5,6,7,8</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>Nexus optimized scenario</t>
   </si>
 </sst>
 </file>
@@ -325,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,7 +353,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,7 +371,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -649,1286 +661,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F2" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="6">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="I2" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2</v>
-      </c>
-      <c r="K2" s="6">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F3" s="6">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="6">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="J3" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K3" s="6">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I4" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="6">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3</v>
-      </c>
-      <c r="H5" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="6">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="J5" s="6">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C7" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F7" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="6">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="J7" s="6">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6">
-        <v>4</v>
-      </c>
-      <c r="K8" s="6">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>7</v>
-      </c>
-      <c r="H9" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>5</v>
-      </c>
-      <c r="K9" s="6">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E10" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F10" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H10" s="6">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="I10" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="6">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="6">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="6">
-        <f>1/5</f>
-        <v>0.2</v>
-      </c>
-      <c r="J11" s="6">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
-        <f>SUM(B2:B11)</f>
-        <v>17.733333333333331</v>
-      </c>
-      <c r="C12" s="8">
-        <f>SUM(C2:C11)</f>
-        <v>34</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" ref="D12:K12" si="0">SUM(D2:D11)</f>
-        <v>14.566666666666666</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>21.583333333333332</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>10.533333333333333</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>26.533333333333331</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5833333333333335</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>2.4285714285714288</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>23.666666666666668</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6">
-        <f>B2/B$12</f>
-        <v>5.6390977443609033E-2</v>
-      </c>
-      <c r="C16" s="6">
-        <f>C2/C$12</f>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16:K16" si="1">D2/D$12</f>
-        <v>0.13729977116704806</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>1.5444015444015444E-2</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>4.746835443037975E-2</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.11306532663316583</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>5.5813953488372092E-2</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="1"/>
-        <v>8.2352941176470587E-2</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" si="1"/>
-        <v>8.4507042253521125E-2</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="L16" s="9">
-        <f>AVERAGE(B16:K16)</f>
-        <v>8.6440120556599373E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6">
-        <f>B3/B$12</f>
-        <v>1.1278195488721807E-2</v>
-      </c>
-      <c r="C17" s="6">
-        <f t="shared" ref="C17:K17" si="2">C3/C$12</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="2"/>
-        <v>1.3729977116704806E-2</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="2"/>
-        <v>1.5444015444015444E-2</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>2.3734177215189875E-2</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="2"/>
-        <v>7.537688442211056E-2</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="2"/>
-        <v>5.5813953488372092E-2</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="2"/>
-        <v>5.8823529411764698E-2</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="2"/>
-        <v>1.408450704225352E-2</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-      <c r="L17" s="9">
-        <f t="shared" ref="L17:L25" si="3">AVERAGE(B17:K17)</f>
-        <v>3.4769700433501513E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" ref="B18:K25" si="4">B4/B$12</f>
-        <v>2.8195488721804517E-2</v>
-      </c>
-      <c r="C18" s="6">
-        <f t="shared" si="4"/>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="4"/>
-        <v>6.8649885583524028E-2</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="4"/>
-        <v>0.138996138996139</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="4"/>
-        <v>4.746835443037975E-2</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="4"/>
-        <v>7.537688442211056E-2</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="4"/>
-        <v>9.3023255813953473E-2</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="4"/>
-        <v>8.2352941176470587E-2</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="4"/>
-        <v>0.12676056338028169</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="L18" s="9">
-        <f t="shared" si="3"/>
-        <v>9.3288233605407542E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6">
-        <f>B5/B$12</f>
-        <v>0.16917293233082709</v>
-      </c>
-      <c r="C19" s="6">
-        <f t="shared" ref="C19:K19" si="5">C5/C$12</f>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="5"/>
-        <v>2.2883295194508008E-2</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="5"/>
-        <v>4.6332046332046337E-2</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="5"/>
-        <v>2.3734177215189875E-2</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="5"/>
-        <v>0.11306532663316583</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5813953488372092E-2</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="5"/>
-        <v>5.8823529411764698E-2</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="5"/>
-        <v>0.12676056338028169</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="L19" s="9">
-        <f>AVERAGE(B19:K19)</f>
-        <v>8.0482111810380258E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11278195488721807</v>
-      </c>
-      <c r="C20" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="4"/>
-        <v>0.13729977116704806</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="4"/>
-        <v>0.18532818532818535</v>
-      </c>
-      <c r="F20" s="6">
-        <f>F6/F$12</f>
-        <v>9.49367088607595E-2</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11306532663316583</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="4"/>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="4"/>
-        <v>8.2352941176470587E-2</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="4"/>
-        <v>8.4507042253521125E-2</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" si="3"/>
-        <v>0.11924538728508283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" si="4"/>
-        <v>1.879699248120301E-2</v>
-      </c>
-      <c r="C21" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4705882352941176E-2</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="4"/>
-        <v>3.4324942791762014E-2</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="4"/>
-        <v>1.5444015444015444E-2</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="4"/>
-        <v>3.164556962025316E-2</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="4"/>
-        <v>3.768844221105528E-2</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="4"/>
-        <v>5.5813953488372092E-2</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="4"/>
-        <v>5.8823529411764698E-2</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="4"/>
-        <v>0.12676056338028169</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="L21" s="9">
-        <f t="shared" si="3"/>
-        <v>5.1900389118164858E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.28195488721804518</v>
-      </c>
-      <c r="C22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.20594965675057209</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.23166023166023167</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.189873417721519</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.18844221105527639</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.27906976744186046</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.16901408450704225</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" si="3"/>
-        <v>0.26415524916486649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.28195488721804518</v>
-      </c>
-      <c r="C23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.20588235294117646</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.34324942791762014</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.4746835443037975</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.26381909547738697</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.21126760563380281</v>
-      </c>
-      <c r="K23" s="6">
-        <f>K9/K$12</f>
-        <v>0.125</v>
-      </c>
-      <c r="L23" s="9">
-        <f t="shared" si="3"/>
-        <v>0.27814808274194369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="6">
-        <f t="shared" si="4"/>
-        <v>2.8195488721804517E-2</v>
-      </c>
-      <c r="C24" s="6">
-        <f t="shared" si="4"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="4"/>
-        <v>2.2883295194508008E-2</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="4"/>
-        <v>1.5444015444015444E-2</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="4"/>
-        <v>4.746835443037975E-2</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2562814070351759E-2</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="4"/>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="4"/>
-        <v>8.2352941176470587E-2</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="4"/>
-        <v>4.2253521126760563E-2</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="4"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="3"/>
-        <v>4.8416316614240278E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1278195488721807E-2</v>
-      </c>
-      <c r="C25" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4705882352941176E-2</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" si="4"/>
-        <v>1.3729977116704806E-2</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1583011583011584E-2</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="4"/>
-        <v>1.8987341772151899E-2</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="4"/>
-        <v>7.5376884422110558E-3</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="4"/>
-        <v>5.5813953488372092E-2</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="4"/>
-        <v>8.2352941176470587E-2</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="4"/>
-        <v>1.408450704225352E-2</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" si="3"/>
-        <v>2.5507349846283854E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L26" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I8" numberStoredAsText="1"/>
-    <ignoredError sqref="I3:I6 H4 H6 F3:F4 F10 E11 C11" formula="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF10693-CFB1-4369-A871-D04F08034386}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A637EEF0-578A-4BFD-99A3-CACE548D787F}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -2527,6 +1259,1286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F2" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3" s="6">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="6">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J3" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="6">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C7" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F7" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="6">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F10" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10" s="6">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="6">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="6">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="6">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <f>SUM(B2:B11)</f>
+        <v>17.733333333333331</v>
+      </c>
+      <c r="C12" s="8">
+        <f>SUM(C2:C11)</f>
+        <v>34</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:K12" si="0">SUM(D2:D11)</f>
+        <v>14.566666666666666</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>21.583333333333332</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>10.533333333333333</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>26.533333333333331</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4285714285714288</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B2/B$12</f>
+        <v>5.6390977443609033E-2</v>
+      </c>
+      <c r="C16" s="6">
+        <f>C2/C$12</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:K16" si="1">D2/D$12</f>
+        <v>0.13729977116704806</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5444015444015444E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>4.746835443037975E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11306532663316583</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>5.5813953488372092E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="1"/>
+        <v>8.4507042253521125E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="L16" s="9">
+        <f>AVERAGE(B16:K16)</f>
+        <v>8.6440120556599373E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B3/B$12</f>
+        <v>1.1278195488721807E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" ref="C17:K17" si="2">C3/C$12</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3729977116704806E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5444015444015444E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3734177215189875E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
+        <v>7.537688442211056E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5813953488372092E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="2"/>
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.408450704225352E-2</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" ref="L17:L25" si="3">AVERAGE(B17:K17)</f>
+        <v>3.4769700433501513E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" ref="B18:K25" si="4">B4/B$12</f>
+        <v>2.8195488721804517E-2</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="4"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="4"/>
+        <v>6.8649885583524028E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="4"/>
+        <v>0.138996138996139</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="4"/>
+        <v>4.746835443037975E-2</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="4"/>
+        <v>7.537688442211056E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="4"/>
+        <v>9.3023255813953473E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="4"/>
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="4"/>
+        <v>0.12676056338028169</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="3"/>
+        <v>9.3288233605407542E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B5/B$12</f>
+        <v>0.16917293233082709</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" ref="C19:K19" si="5">C5/C$12</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="5"/>
+        <v>2.2883295194508008E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="5"/>
+        <v>4.6332046332046337E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="5"/>
+        <v>2.3734177215189875E-2</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="5"/>
+        <v>0.11306532663316583</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5813953488372092E-2</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="5"/>
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="5"/>
+        <v>0.12676056338028169</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="9">
+        <f>AVERAGE(B19:K19)</f>
+        <v>8.0482111810380258E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.11278195488721807</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.13729977116704806</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.18532818532818535</v>
+      </c>
+      <c r="F20" s="6">
+        <f>F6/F$12</f>
+        <v>9.49367088607595E-2</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.11306532663316583</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="4"/>
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="4"/>
+        <v>8.4507042253521125E-2</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="3"/>
+        <v>0.11924538728508283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="4"/>
+        <v>1.879699248120301E-2</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="4"/>
+        <v>3.4324942791762014E-2</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="4"/>
+        <v>1.5444015444015444E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="4"/>
+        <v>3.164556962025316E-2</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="4"/>
+        <v>3.768844221105528E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="4"/>
+        <v>5.5813953488372092E-2</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="4"/>
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="4"/>
+        <v>0.12676056338028169</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="3"/>
+        <v>5.1900389118164858E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.28195488721804518</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.20594965675057209</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.23166023166023167</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.189873417721519</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.18844221105527639</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.27906976744186046</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.26415524916486649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.28195488721804518</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.34324942791762014</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.4746835443037975</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.26381909547738697</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.21126760563380281</v>
+      </c>
+      <c r="K23" s="6">
+        <f>K9/K$12</f>
+        <v>0.125</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.27814808274194369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8195488721804517E-2</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="4"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2883295194508008E-2</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="4"/>
+        <v>1.5444015444015444E-2</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="4"/>
+        <v>4.746835443037975E-2</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2562814070351759E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="4"/>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="4"/>
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2253521126760563E-2</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="3"/>
+        <v>4.8416316614240278E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1278195488721807E-2</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="4"/>
+        <v>1.3729977116704806E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1583011583011584E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="4"/>
+        <v>1.8987341772151899E-2</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="4"/>
+        <v>7.5376884422110558E-3</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="4"/>
+        <v>5.5813953488372092E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="4"/>
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="4"/>
+        <v>1.408450704225352E-2</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="3"/>
+        <v>2.5507349846283854E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I8" numberStoredAsText="1"/>
+    <ignoredError sqref="I3:I6 H4 H6 F3:F4 F10 E11 C11" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF10693-CFB1-4369-A871-D04F08034386}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44EA1FC-CFB9-4FBB-9DED-2B39E11FE368}">
   <dimension ref="A1:C14"/>
@@ -2538,34 +2550,34 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
       <c r="C1" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2576,7 +2588,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2587,7 +2599,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2598,7 +2610,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2609,64 +2621,64 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -2682,7 +2694,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2736,7 +2748,7 @@
         <v>46</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2909,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCA42DC-B205-42E1-9815-1453A6C5BD9F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2981,6 +2993,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2988,320 +3008,354 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9B36E7-9711-40D1-9FF3-AA0981DB91E2}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="4" max="8" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:21" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="14">
-        <v>1</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C3:Y13">
+  <conditionalFormatting sqref="D3:H13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
+++ b/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_ghodsvali_tue_nl/Documents/Collaboration/Papers/04-Decision Support System/MOO algorithm scripts/Project/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D25CB44-036F-4784-A2F7-F36F02D30C1D}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF54828B-EF7F-4272-A645-490D13D549C8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Configs" sheetId="6" r:id="rId5"/>
     <sheet name="Landuse Dict" sheetId="7" r:id="rId6"/>
     <sheet name="Policy Dict" sheetId="8" r:id="rId7"/>
-    <sheet name="Combination" sheetId="9" r:id="rId8"/>
-    <sheet name="Possible policies combinations" sheetId="4" r:id="rId9"/>
+    <sheet name="Policies charateristics" sheetId="10" r:id="rId8"/>
+    <sheet name="Combination" sheetId="9" r:id="rId9"/>
+    <sheet name="Possible policies combinations" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>K1</t>
   </si>
@@ -238,6 +239,21 @@
   </si>
   <si>
     <t>Nexus optimized scenario</t>
+  </si>
+  <si>
+    <t>Financial cost</t>
+  </si>
+  <si>
+    <t>Social cost</t>
+  </si>
+  <si>
+    <t>Activation time</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Policy</t>
   </si>
 </sst>
 </file>
@@ -1254,11 +1270,370 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9B36E7-9711-40D1-9FF3-AA0981DB91E2}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="4" max="8" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D3:H13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -1749,43 +2124,43 @@
         <v>18</v>
       </c>
       <c r="B12" s="5">
-        <f>1/9</f>
+        <f t="shared" ref="B12:K12" si="0">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="C12" s="5">
-        <f>1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D12" s="5">
-        <f>1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="E12" s="5">
-        <f>1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="F12" s="5">
-        <f>1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="G12" s="5">
-        <f>1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="H12" s="5">
-        <f>1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="I12" s="5">
-        <f>1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="J12" s="5">
-        <f>1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="K12" s="5">
-        <f>1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="L12" s="5">
@@ -1802,39 +2177,39 @@
         <v>17.844444444444441</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13:K13" si="0">SUM(C2:C12)</f>
+        <f t="shared" ref="C13:K13" si="1">SUM(C2:C12)</f>
         <v>34.111111111111114</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.677777777777777</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.694444444444443</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.644444444444444</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.644444444444442</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6944444444444446</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.53968253968254</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.777777777777779</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.111111111111114</v>
       </c>
       <c r="L13" s="5">
@@ -1925,39 +2300,39 @@
         <v>0.14657980456026057</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ref="D17:L17" si="1">D2/D$13</f>
+        <f t="shared" ref="D17:L17" si="2">D2/D$13</f>
         <v>0.13626040878122636</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5364916773367477E-2</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.697286012526096E-2</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11259382819015848</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4135338345864661E-2</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8750000000000001E-2</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4112149532710276E-2</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12465373961218836</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8901098901098897E-2</v>
       </c>
       <c r="M17" s="7">
@@ -1970,31 +2345,31 @@
         <v>1</v>
       </c>
       <c r="B18" s="5">
-        <f>B3/B$13</f>
+        <f t="shared" ref="B18:B27" si="3">B3/B$13</f>
         <v>1.1207970112079704E-2</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:L18" si="2">C3/C$13</f>
+        <f t="shared" ref="C18:K18" si="4">C3/C$13</f>
         <v>2.9315960912052113E-2</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3626040878122636E-2</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5364916773367477E-2</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.348643006263048E-2</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.5062552126772319E-2</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4135338345864661E-2</v>
       </c>
       <c r="I18" s="5">
@@ -2002,11 +2377,11 @@
         <v>5.6249999999999988E-2</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4018691588785045E-2</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9861495844875342E-2</v>
       </c>
       <c r="L18" s="5">
@@ -2023,31 +2398,31 @@
         <v>2</v>
       </c>
       <c r="B19" s="5">
-        <f>B4/B$13</f>
+        <f t="shared" si="3"/>
         <v>2.8019925280199257E-2</v>
       </c>
       <c r="C19" s="5">
-        <f>C4/C$13</f>
+        <f t="shared" ref="C19:H19" si="5">C4/C$13</f>
         <v>0.14657980456026057</v>
       </c>
       <c r="D19" s="5">
-        <f>D4/D$13</f>
+        <f t="shared" si="5"/>
         <v>6.813020439061318E-2</v>
       </c>
       <c r="E19" s="5">
-        <f>E4/E$13</f>
+        <f t="shared" si="5"/>
         <v>0.1382842509603073</v>
       </c>
       <c r="F19" s="5">
-        <f>F4/F$13</f>
+        <f t="shared" si="5"/>
         <v>4.697286012526096E-2</v>
       </c>
       <c r="G19" s="5">
-        <f>G4/G$13</f>
+        <f t="shared" si="5"/>
         <v>7.5062552126772319E-2</v>
       </c>
       <c r="H19" s="5">
-        <f>H4/H$13</f>
+        <f t="shared" si="5"/>
         <v>9.0225563909774431E-2</v>
       </c>
       <c r="I19" s="5">
@@ -2059,15 +2434,15 @@
         <v>0.12616822429906541</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" ref="K19:L19" si="3">K4/K$13</f>
+        <f t="shared" ref="K19:L19" si="6">K4/K$13</f>
         <v>0.12465373961218836</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.8901098901098897E-2</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19:M27" si="4">AVERAGE(B19:L19)</f>
+        <f t="shared" ref="M19:M26" si="7">AVERAGE(B19:L19)</f>
         <v>9.2886202196867329E-2</v>
       </c>
     </row>
@@ -2076,47 +2451,47 @@
         <v>3</v>
       </c>
       <c r="B20" s="5">
-        <f>B5/B$13</f>
+        <f t="shared" si="3"/>
         <v>0.16811955168119555</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ref="C20:L20" si="5">C5/C$13</f>
+        <f t="shared" ref="C20:L20" si="8">C5/C$13</f>
         <v>8.7947882736156349E-2</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2710068130204389E-2</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.6094750320102434E-2</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.348643006263048E-2</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.11259382819015848</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.4135338345864661E-2</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.6249999999999988E-2</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.12616822429906541</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.9722991689750684E-2</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.8901098901098897E-2</v>
       </c>
       <c r="M20" s="7">
@@ -2129,51 +2504,51 @@
         <v>4</v>
       </c>
       <c r="B21" s="5">
-        <f>B6/B$13</f>
+        <f t="shared" si="3"/>
         <v>0.11207970112079703</v>
       </c>
       <c r="C21" s="5">
-        <f>C6/C$13</f>
+        <f t="shared" ref="C21:J26" si="9">C6/C$13</f>
         <v>0.11726384364820845</v>
       </c>
       <c r="D21" s="5">
-        <f>D6/D$13</f>
+        <f t="shared" si="9"/>
         <v>0.13626040878122636</v>
       </c>
       <c r="E21" s="5">
-        <f>E6/E$13</f>
+        <f t="shared" si="9"/>
         <v>0.18437900128040974</v>
       </c>
       <c r="F21" s="5">
-        <f>F6/F$13</f>
+        <f t="shared" si="9"/>
         <v>9.3945720250521919E-2</v>
       </c>
       <c r="G21" s="5">
-        <f>G6/G$13</f>
+        <f t="shared" si="9"/>
         <v>0.11259382819015848</v>
       </c>
       <c r="H21" s="5">
-        <f>H6/H$13</f>
+        <f t="shared" si="9"/>
         <v>0.13533834586466165</v>
       </c>
       <c r="I21" s="5">
-        <f>I6/I$13</f>
+        <f t="shared" si="9"/>
         <v>7.8750000000000001E-2</v>
       </c>
       <c r="J21" s="5">
-        <f>J6/J$13</f>
+        <f t="shared" si="9"/>
         <v>8.4112149532710276E-2</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" ref="K21:L21" si="6">K6/K$13</f>
+        <f t="shared" ref="K21:L21" si="10">K6/K$13</f>
         <v>0.12465373961218836</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.8901098901098897E-2</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.11620707610745283</v>
       </c>
     </row>
@@ -2182,51 +2557,51 @@
         <v>5</v>
       </c>
       <c r="B22" s="5">
-        <f>B7/B$13</f>
+        <f t="shared" si="3"/>
         <v>1.8679950186799504E-2</v>
       </c>
       <c r="C22" s="5">
-        <f>C7/C$13</f>
+        <f t="shared" si="9"/>
         <v>1.4657980456026056E-2</v>
       </c>
       <c r="D22" s="5">
-        <f>D7/D$13</f>
+        <f t="shared" si="9"/>
         <v>3.406510219530659E-2</v>
       </c>
       <c r="E22" s="5">
-        <f>E7/E$13</f>
+        <f t="shared" si="9"/>
         <v>1.5364916773367477E-2</v>
       </c>
       <c r="F22" s="5">
-        <f>F7/F$13</f>
+        <f t="shared" si="9"/>
         <v>3.1315240083507306E-2</v>
       </c>
       <c r="G22" s="5">
-        <f>G7/G$13</f>
+        <f t="shared" si="9"/>
         <v>3.753127606338616E-2</v>
       </c>
       <c r="H22" s="5">
-        <f>H7/H$13</f>
+        <f t="shared" si="9"/>
         <v>5.4135338345864661E-2</v>
       </c>
       <c r="I22" s="5">
-        <f>I7/I$13</f>
+        <f t="shared" si="9"/>
         <v>5.6249999999999988E-2</v>
       </c>
       <c r="J22" s="5">
-        <f>J7/J$13</f>
+        <f t="shared" si="9"/>
         <v>0.12616822429906541</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ref="K22:L22" si="7">K7/K$13</f>
+        <f t="shared" ref="K22:L22" si="11">K7/K$13</f>
         <v>0.12465373961218836</v>
       </c>
       <c r="L22" s="5">
+        <f t="shared" si="11"/>
+        <v>9.8901098901098897E-2</v>
+      </c>
+      <c r="M22" s="7">
         <f t="shared" si="7"/>
-        <v>9.8901098901098897E-2</v>
-      </c>
-      <c r="M22" s="7">
-        <f t="shared" si="4"/>
         <v>5.561116971969185E-2</v>
       </c>
     </row>
@@ -2235,51 +2610,51 @@
         <v>6</v>
       </c>
       <c r="B23" s="5">
-        <f>B8/B$13</f>
+        <f t="shared" si="3"/>
         <v>0.28019925280199259</v>
       </c>
       <c r="C23" s="5">
-        <f>C8/C$13</f>
+        <f t="shared" si="9"/>
         <v>0.14657980456026057</v>
       </c>
       <c r="D23" s="5">
-        <f>D8/D$13</f>
+        <f t="shared" si="9"/>
         <v>0.20439061317183951</v>
       </c>
       <c r="E23" s="5">
-        <f>E8/E$13</f>
+        <f t="shared" si="9"/>
         <v>0.23047375160051217</v>
       </c>
       <c r="F23" s="5">
-        <f>F8/F$13</f>
+        <f t="shared" si="9"/>
         <v>0.18789144050104384</v>
       </c>
       <c r="G23" s="5">
-        <f>G8/G$13</f>
+        <f t="shared" si="9"/>
         <v>0.1876563803169308</v>
       </c>
       <c r="H23" s="5">
-        <f>H8/H$13</f>
+        <f t="shared" si="9"/>
         <v>0.27067669172932329</v>
       </c>
       <c r="I23" s="5">
-        <f>I8/I$13</f>
+        <f t="shared" si="9"/>
         <v>0.78749999999999987</v>
       </c>
       <c r="J23" s="5">
-        <f>J8/J$13</f>
+        <f t="shared" si="9"/>
         <v>0.16822429906542055</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" ref="K23:L23" si="8">K8/K$13</f>
+        <f t="shared" ref="K23:L23" si="12">K8/K$13</f>
         <v>0.12465373961218836</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9.8901098901098897E-2</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.24428609747823729</v>
       </c>
     </row>
@@ -2288,51 +2663,51 @@
         <v>7</v>
       </c>
       <c r="B24" s="5">
-        <f>B9/B$13</f>
+        <f t="shared" si="3"/>
         <v>0.28019925280199259</v>
       </c>
       <c r="C24" s="5">
-        <f>C9/C$13</f>
+        <f t="shared" si="9"/>
         <v>0.2052117263843648</v>
       </c>
       <c r="D24" s="5">
-        <f>D9/D$13</f>
+        <f t="shared" si="9"/>
         <v>0.34065102195306585</v>
       </c>
       <c r="E24" s="5">
-        <f>E9/E$13</f>
+        <f t="shared" si="9"/>
         <v>0.32266325224071707</v>
       </c>
       <c r="F24" s="5">
-        <f>F9/F$13</f>
+        <f t="shared" si="9"/>
         <v>0.46972860125260962</v>
       </c>
       <c r="G24" s="5">
-        <f>G9/G$13</f>
+        <f t="shared" si="9"/>
         <v>0.26271893244370309</v>
       </c>
       <c r="H24" s="5">
-        <f>H9/H$13</f>
+        <f t="shared" si="9"/>
         <v>0.13533834586466165</v>
       </c>
       <c r="I24" s="5">
-        <f>I9/I$13</f>
+        <f t="shared" si="9"/>
         <v>0.39374999999999993</v>
       </c>
       <c r="J24" s="5">
-        <f>J9/J$13</f>
+        <f t="shared" si="9"/>
         <v>0.2102803738317757</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" ref="K24:L24" si="9">K9/K$13</f>
+        <f t="shared" ref="K24:L24" si="13">K9/K$13</f>
         <v>0.12465373961218836</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.8901098901098897E-2</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.25855421320783434</v>
       </c>
     </row>
@@ -2341,51 +2716,51 @@
         <v>8</v>
       </c>
       <c r="B25" s="5">
-        <f>B10/B$13</f>
+        <f t="shared" si="3"/>
         <v>2.8019925280199257E-2</v>
       </c>
       <c r="C25" s="5">
-        <f>C10/C$13</f>
+        <f t="shared" si="9"/>
         <v>8.7947882736156349E-2</v>
       </c>
       <c r="D25" s="5">
-        <f>D10/D$13</f>
+        <f t="shared" si="9"/>
         <v>2.2710068130204389E-2</v>
       </c>
       <c r="E25" s="5">
-        <f>E10/E$13</f>
+        <f t="shared" si="9"/>
         <v>1.5364916773367477E-2</v>
       </c>
       <c r="F25" s="5">
-        <f>F10/F$13</f>
+        <f t="shared" si="9"/>
         <v>4.697286012526096E-2</v>
       </c>
       <c r="G25" s="5">
-        <f>G10/G$13</f>
+        <f t="shared" si="9"/>
         <v>1.2510425354462052E-2</v>
       </c>
       <c r="H25" s="5">
-        <f>H10/H$13</f>
+        <f t="shared" si="9"/>
         <v>6.7669172932330823E-2</v>
       </c>
       <c r="I25" s="5">
-        <f>I10/I$13</f>
+        <f t="shared" si="9"/>
         <v>7.8750000000000001E-2</v>
       </c>
       <c r="J25" s="5">
-        <f>J10/J$13</f>
+        <f t="shared" si="9"/>
         <v>4.2056074766355138E-2</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" ref="K25:L25" si="10">K10/K$13</f>
+        <f t="shared" ref="K25:L25" si="14">K10/K$13</f>
         <v>7.4792243767313013E-2</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.8901098901098897E-2</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.2335878978795304E-2</v>
       </c>
     </row>
@@ -2394,51 +2769,51 @@
         <v>9</v>
       </c>
       <c r="B26" s="5">
-        <f>B11/B$13</f>
+        <f t="shared" si="3"/>
         <v>1.1207970112079704E-2</v>
       </c>
       <c r="C26" s="5">
-        <f>C11/C$13</f>
+        <f t="shared" si="9"/>
         <v>1.4657980456026056E-2</v>
       </c>
       <c r="D26" s="5">
-        <f>D11/D$13</f>
+        <f t="shared" si="9"/>
         <v>1.3626040878122636E-2</v>
       </c>
       <c r="E26" s="5">
-        <f>E11/E$13</f>
+        <f t="shared" si="9"/>
         <v>1.1523687580025609E-2</v>
       </c>
       <c r="F26" s="5">
-        <f>F11/F$13</f>
+        <f t="shared" si="9"/>
         <v>1.8789144050104387E-2</v>
       </c>
       <c r="G26" s="5">
-        <f>G11/G$13</f>
+        <f t="shared" si="9"/>
         <v>7.5062552126772325E-3</v>
       </c>
       <c r="H26" s="5">
-        <f>H11/H$13</f>
+        <f t="shared" si="9"/>
         <v>5.4135338345864661E-2</v>
       </c>
       <c r="I26" s="5">
-        <f>I11/I$13</f>
+        <f t="shared" si="9"/>
         <v>7.8750000000000001E-2</v>
       </c>
       <c r="J26" s="5">
-        <f>J11/J$13</f>
+        <f t="shared" si="9"/>
         <v>1.4018691588785045E-2</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" ref="K26:L26" si="11">K11/K$13</f>
+        <f t="shared" ref="K26:L26" si="15">K11/K$13</f>
         <v>2.4930747922437671E-2</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.8901098901098897E-2</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.1640632277020173E-2</v>
       </c>
     </row>
@@ -2447,43 +2822,43 @@
         <v>18</v>
       </c>
       <c r="B27" s="5">
-        <f>B12/B$13</f>
+        <f t="shared" si="3"/>
         <v>6.2266500622665012E-3</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:L27" si="12">C12/C$13</f>
+        <f t="shared" ref="C27:K27" si="16">C12/C$13</f>
         <v>3.2573289902280127E-3</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.5700227100681302E-3</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.1216389244558257E-3</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.0438413361169102E-2</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.1701417848206837E-3</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.007518796992481E-2</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.374999999999999E-2</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.6728971962616819E-3</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.7700831024930744E-3</v>
       </c>
       <c r="L27" s="5">
@@ -3097,6 +3472,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67607632-E06E-4CE7-8149-E02E528F9800}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>400</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCA42DC-B205-42E1-9815-1453A6C5BD9F}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3173,363 +3754,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9B36E7-9711-40D1-9FF3-AA0981DB91E2}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
-    <col min="4" max="8" width="30.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D3:H13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
+++ b/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_ghodsvali_tue_nl/Documents/Collaboration/Papers/04-Decision Support System/MOO algorithm scripts/Project/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF54828B-EF7F-4272-A645-490D13D549C8}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0238B96-7D4C-41EA-B000-CE197FD43B7A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35400" yWindow="3675" windowWidth="17280" windowHeight="9075" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="64">
   <si>
     <t>K1</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Policy</t>
+  </si>
+  <si>
+    <t>water_demand</t>
   </si>
 </sst>
 </file>
@@ -3243,9 +3246,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F664CE21-9435-45EE-BDCF-0A6862ECC5A2}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3289,25 +3292,33 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>43200000</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>43200000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>100</v>
       </c>
     </row>
@@ -3475,7 +3486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67607632-E06E-4CE7-8149-E02E528F9800}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
+++ b/meta/21.03.29_Optimization Development Calculations_M.Ghodsvali.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_ghodsvali_tue_nl/Documents/Collaboration/Papers/04-Decision Support System/MOO algorithm scripts/Project/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0238B96-7D4C-41EA-B000-CE197FD43B7A}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="8_{2974B8AF-CBE0-4A5C-B00A-27C9069D3009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3ACB0FF2-64BF-4775-A0D5-637857D7FB38}"/>
   <bookViews>
-    <workbookView xWindow="35400" yWindow="3675" windowWidth="17280" windowHeight="9075" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance" sheetId="3" r:id="rId1"/>
@@ -3249,7 +3249,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
